--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\eclipse-workspace\DataDrivenApproach\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\eclipse-workspace\PageObjectModelApproach\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE6231D-E706-4945-B848-6E196CD25E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0046B9-69AA-4B43-92DE-D2B9523BDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
     <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
     <sheet name="addAccount" sheetId="4" r:id="rId4"/>
+    <sheet name="newCarTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Username</t>
   </si>
@@ -94,6 +95,45 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>carBrand</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>maruti</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>audi</t>
   </si>
 </sst>
 </file>
@@ -152,10 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E48D5-4AF8-42C7-A64F-136C571C0177}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
@@ -630,4 +671,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7A52F-4FE0-4309-B48A-9C36E1425EC8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testData.xlsx
+++ b/src/test/resources/excel/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\eclipse-workspace\PageObjectModelApproach\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0046B9-69AA-4B43-92DE-D2B9523BDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3530E979-00E9-4E63-8CAF-E6A681D15936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
     <sheet name="addAccount" sheetId="4" r:id="rId4"/>
     <sheet name="newCarTest" sheetId="5" r:id="rId5"/>
+    <sheet name="carModelAndPrice" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -134,6 +135,24 @@
   </si>
   <si>
     <t>audi</t>
+  </si>
+  <si>
+    <t>carTitle</t>
+  </si>
+  <si>
+    <t>BMW Cars</t>
+  </si>
+  <si>
+    <t>Tata Cars</t>
+  </si>
+  <si>
+    <t>Maruti Cars</t>
+  </si>
+  <si>
+    <t>Audi Cars</t>
+  </si>
+  <si>
+    <t>Toyota Carss</t>
   </si>
 </sst>
 </file>
@@ -192,11 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +693,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7A52F-4FE0-4309-B48A-9C36E1425EC8}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636E556-C495-4C4E-BC2F-8A7DA53510BE}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,24 +848,24 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
